--- a/SIRS MODELS/spain/24_03_2020.xlsx
+++ b/SIRS MODELS/spain/24_03_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84787834-5127-430D-8A1F-746BBEBEC1BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8632B51-F1F6-45EC-A86F-6CFED5EC49D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6235,6 +6235,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>54968</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8094,8 +8097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:F204"/>
+    <sheetView tabSelected="1" topLeftCell="N16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X43" sqref="X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10642,11 +10645,25 @@
         <f t="shared" si="13"/>
         <v>56577</v>
       </c>
-      <c r="T38" s="164"/>
-      <c r="U38" s="165"/>
-      <c r="V38" s="112"/>
-      <c r="W38" s="165"/>
-      <c r="X38" s="108"/>
+      <c r="T38" s="164">
+        <v>58598</v>
+      </c>
+      <c r="U38" s="165">
+        <f>S38-T38</f>
+        <v>-2021</v>
+      </c>
+      <c r="V38" s="112">
+        <f>U38/T38</f>
+        <v>-3.4489231714392984E-2</v>
+      </c>
+      <c r="W38" s="165">
+        <f>W37+U38</f>
+        <v>-12196</v>
+      </c>
+      <c r="X38" s="108">
+        <f>V38+X37</f>
+        <v>-0.24634149633883973</v>
+      </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
